--- a/05-Diğer/Sunum Dokumanlar/BEP Study/IZU_ALL_DB_LA_ERY_ToDoList.xlsx
+++ b/05-Diğer/Sunum Dokumanlar/BEP Study/IZU_ALL_DB_LA_ERY_ToDoList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray.uzun\Dropbox\BIM_Local_99-KISISEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray.uzun\Desktop\ERAY\! Kişisel Belgeler\BIM_Project_Local\05-Diğer\Sunum Dokumanlar\BEP Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9075EE62-5AD7-4FDA-AE2D-0772A5335DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA1B60-2E02-44E9-8681-A684FC2EEEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1605" yWindow="-14400" windowWidth="15570" windowHeight="11055" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4472,7 +4472,7 @@
   <dimension ref="B5:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/05-Diğer/Sunum Dokumanlar/BEP Study/IZU_ALL_DB_LA_ERY_ToDoList.xlsx
+++ b/05-Diğer/Sunum Dokumanlar/BEP Study/IZU_ALL_DB_LA_ERY_ToDoList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="BuÇalışmaKitabı"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray.uzun\Desktop\ERAY\! Kişisel Belgeler\BIM_Project_Local\05-Diğer\Sunum Dokumanlar\BEP Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray\Documents\BIM_Project_Local\05-Diğer\Sunum Dokumanlar\BEP Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA1B60-2E02-44E9-8681-A684FC2EEEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="-14400" windowWidth="15570" windowHeight="11055" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1608" yWindow="-14400" windowWidth="15576" windowHeight="11052"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sayfa6 (2)" sheetId="8" r:id="rId8"/>
     <sheet name="IE Charts" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="314">
   <si>
     <t>Yapılacak İşler</t>
   </si>
@@ -384,18 +383,6 @@
     <t>ASEPSİ ZİYARETÇİ</t>
   </si>
   <si>
-    <t>STATİK</t>
-  </si>
-  <si>
-    <t>MİMARİ</t>
-  </si>
-  <si>
-    <t>MEKANİK</t>
-  </si>
-  <si>
-    <t>ELEKTRİK</t>
-  </si>
-  <si>
     <t>3.3</t>
   </si>
   <si>
@@ -411,33 +398,6 @@
     <t>Kablo Taşıyıcı Kanal</t>
   </si>
   <si>
-    <t>Havalandırma Kanalı</t>
-  </si>
-  <si>
-    <t>Medikal Gaz Boruları</t>
-  </si>
-  <si>
-    <t>Hav. Kanalı</t>
-  </si>
-  <si>
-    <t>Kapı</t>
-  </si>
-  <si>
-    <t>ÇAKIŞMA MATRİSİ</t>
-  </si>
-  <si>
-    <t>Zemin</t>
-  </si>
-  <si>
-    <t>Tavan</t>
-  </si>
-  <si>
-    <t>Duvar</t>
-  </si>
-  <si>
-    <t>Cephe</t>
-  </si>
-  <si>
     <t>MT2-04-019</t>
   </si>
   <si>
@@ -534,15 +494,6 @@
     <t>LOD300</t>
   </si>
   <si>
-    <t>1. Öncelik</t>
-  </si>
-  <si>
-    <t>2. Öncelik</t>
-  </si>
-  <si>
-    <t>Disiplinler arası çakışmalar 1. öncelik, disipliniçi çakışmalar 2. öncelik olarak değerlendirilmiştir.</t>
-  </si>
-  <si>
     <t>Y12-X38 = 0.00;0.00</t>
   </si>
   <si>
@@ -759,9 +710,6 @@
     <t>SECTION H: COMMON DATA ENVIRONMENT</t>
   </si>
   <si>
-    <t>SECTION I: DATA SEGREGATION and FEDERATION STRATEGY</t>
-  </si>
-  <si>
     <t>SECTION J: COLLABORATION PROCEDURES</t>
   </si>
   <si>
@@ -774,9 +722,6 @@
     <t>SECTION M: PROJECT ORIGIN POINT and COORDINATES</t>
   </si>
   <si>
-    <t>SECTION N: ATTACHMENTS</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -786,9 +731,6 @@
     <t>Dosyalama ağacı şeması</t>
   </si>
   <si>
-    <t>Şeması</t>
-  </si>
-  <si>
     <t>Discipline Code</t>
   </si>
   <si>
@@ -963,9 +905,6 @@
     <t>LEVEL OF DEVELOPMENT (LOD) SPECIFICATION PART I &amp; COMMENTARY (BIM FORUM 2020)</t>
   </si>
   <si>
-    <t>BIM Infor. Exh. İle birleşebilir</t>
-  </si>
-  <si>
     <t>LIST Of Information Exchange Worksheet Attch 4</t>
   </si>
   <si>
@@ -1057,12 +996,46 @@
   </si>
   <si>
     <t>FLOOR</t>
+  </si>
+  <si>
+    <t>STATIC</t>
+  </si>
+  <si>
+    <t>ARCHITUCTURE</t>
+  </si>
+  <si>
+    <t>Facade</t>
+  </si>
+  <si>
+    <t>MECHANIC</t>
+  </si>
+  <si>
+    <t>ELECTRIC</t>
+  </si>
+  <si>
+    <t>Interdisciplinary overlaps are considered as priority 1st, intradisciplinary overlaps as priority 2nd</t>
+  </si>
+  <si>
+    <t>CLASH MATRIX</t>
+  </si>
+  <si>
+    <t>1. Priority</t>
+  </si>
+  <si>
+    <t>2. Priority</t>
+  </si>
+  <si>
+    <t>Ventilation - Duct
+(supply air only)</t>
+  </si>
+  <si>
+    <t>Y12-X39 = 0.00;0.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ ddd"/>
@@ -1151,7 +1124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,8 +1203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1410,40 +1389,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1455,90 +1401,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1771,25 +1638,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1830,7 +1680,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1855,13 +1712,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
+      <xdr:colOff>435430</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>70414</xdr:colOff>
+      <xdr:colOff>407872</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>26722</xdr:rowOff>
     </xdr:to>
@@ -1886,7 +1743,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12932229" y="6411686"/>
+          <a:off x="13269687" y="6411686"/>
           <a:ext cx="7287642" cy="6220693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2472,12 +2329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa1"/>
-  <dimension ref="B2:F52"/>
+  <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2763,11 +2620,11 @@
         <v>1</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F22" s="14"/>
     </row>
@@ -2777,11 +2634,11 @@
         <v>2</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -2791,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="4" t="s">
@@ -2805,11 +2662,11 @@
         <v>4</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F25" s="15"/>
     </row>
@@ -2845,11 +2702,11 @@
         <v>1</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="6" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F37" s="14"/>
     </row>
@@ -2858,11 +2715,11 @@
         <v>2</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F38" s="15"/>
     </row>
@@ -2871,11 +2728,11 @@
         <v>3</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F39" s="15"/>
     </row>
@@ -2884,11 +2741,11 @@
         <v>4</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F40" s="15"/>
     </row>
@@ -2897,11 +2754,11 @@
         <v>5</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="4" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="F41" s="15"/>
     </row>
@@ -2910,22 +2767,22 @@
         <v>6</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D42" s="21"/>
-      <c r="E42" s="4" t="s">
-        <v>156</v>
+      <c r="E42" s="96" t="s">
+        <v>211</v>
       </c>
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
-      <c r="C43" s="93" t="s">
-        <v>230</v>
+      <c r="C43" s="82" t="s">
+        <v>212</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="4" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="F43" s="15"/>
     </row>
@@ -2934,22 +2791,22 @@
         <v>7</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="4" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
-      <c r="C45" s="93" t="s">
-        <v>231</v>
+      <c r="C45" s="82" t="s">
+        <v>213</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="4" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="F45" s="15"/>
     </row>
@@ -2958,95 +2815,65 @@
         <v>8</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>232</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="9">
-        <v>9</v>
+      <c r="B47" s="10">
+        <v>10</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>291</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="10">
-        <v>10</v>
+      <c r="B48" s="9">
+        <v>11</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="4" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="F48" s="15"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="9">
-        <v>11</v>
+      <c r="B49" s="10">
+        <v>12</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F49" s="15"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="10">
-        <v>12</v>
+      <c r="B50" s="9">
+        <v>13</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F50" s="15"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="9">
-        <v>13</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="10">
-        <v>14</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3055,12 +2882,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A3:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3128,7 +2955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A2:K74"/>
   <sheetViews>
@@ -3190,7 +3017,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" s="31" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="3"/>
@@ -3201,7 +3028,7 @@
       </c>
       <c r="C8" s="30"/>
       <c r="E8" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F8" s="32"/>
       <c r="H8" s="33"/>
@@ -3225,13 +3052,13 @@
         <v>1.1-Statik-Kolon</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>77</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I9" s="33"/>
       <c r="K9" s="26" t="e">
@@ -3257,13 +3084,13 @@
         <v>1.2-Statik-Kiriş</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I10" s="33"/>
     </row>
@@ -3285,13 +3112,13 @@
         <v>1.3-Statik-Döşeme</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I11" s="33"/>
     </row>
@@ -3313,13 +3140,13 @@
         <v>1.4-Statik-Perde Duvar</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="I12" s="33"/>
     </row>
@@ -3341,13 +3168,13 @@
         <v>2.1-Mimari-Duvar - Alçıpan</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I13" s="33"/>
     </row>
@@ -3369,13 +3196,13 @@
         <v>2.2-Mimari-Duvar - Bims</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>82</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I14" s="33"/>
     </row>
@@ -3397,13 +3224,13 @@
         <v>2.3-Mimari-Otomatik Kapı</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>77</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I15" s="33"/>
     </row>
@@ -3425,13 +3252,13 @@
         <v>2.4-Mimari-Pencere</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I16" s="33"/>
     </row>
@@ -3453,13 +3280,13 @@
         <v>2.5-Mimari-Yatak</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I17" s="33"/>
     </row>
@@ -3481,13 +3308,13 @@
         <v>2.6-Mimari-Cephe Kaplama</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="I18" s="33"/>
     </row>
@@ -3509,13 +3336,13 @@
         <v>2.7-Mimari-Zemin-PVC + Self Lev</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I19" s="33"/>
     </row>
@@ -3537,13 +3364,13 @@
         <v>2.8-Mimari-Zemin-Seramik</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>85</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I20" s="33"/>
     </row>
@@ -3565,13 +3392,13 @@
         <v>2.9-Mimari-Zemin-Parke</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>86</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I21" s="33"/>
     </row>
@@ -3593,13 +3420,13 @@
         <v>2.10-Mimari-Asma Tavan</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>86</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I22" s="33"/>
     </row>
@@ -3621,13 +3448,13 @@
         <v>3.1-Mekanik-Havalandırma - Kanal</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>86</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I23" s="33"/>
     </row>
@@ -3649,13 +3476,13 @@
         <v>3.2-Mekanik-Havalandırma - Menfez</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>86</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I24" s="33"/>
     </row>
@@ -3667,23 +3494,23 @@
         <v>31</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E25" s="59" t="str">
         <f t="shared" si="0"/>
         <v>3.3-Mekanik-Medikal Gaz Borulama</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I25" s="33"/>
     </row>
@@ -3695,23 +3522,23 @@
         <v>31</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E26" s="59" t="str">
         <f t="shared" si="0"/>
         <v>3.4-Mekanik-Hastabaşı Ünitesi</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>86</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I26" s="33"/>
     </row>
@@ -3726,20 +3553,20 @@
         <v>76</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E27" s="59" t="str">
         <f>C27&amp;"-"&amp;B27&amp;"-"&amp;D27</f>
         <v>4.1-Elektrik-Kablo Taşıyıcı Kanal</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>86</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I27" s="33"/>
     </row>
@@ -3752,7 +3579,7 @@
         <v>86</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I28" s="33"/>
     </row>
@@ -3765,7 +3592,7 @@
         <v>86</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I29" s="33"/>
     </row>
@@ -3778,7 +3605,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="I30" s="33"/>
     </row>
@@ -3787,7 +3614,7 @@
         <v>87</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I31" s="33"/>
     </row>
@@ -3796,7 +3623,7 @@
         <v>88</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="I32" s="33"/>
     </row>
@@ -3805,7 +3632,7 @@
         <v>89</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I33" s="33"/>
     </row>
@@ -3814,7 +3641,7 @@
         <v>90</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I34" s="33"/>
     </row>
@@ -3823,7 +3650,7 @@
         <v>91</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="I35" s="33"/>
     </row>
@@ -3832,7 +3659,7 @@
         <v>92</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I36" s="33"/>
     </row>
@@ -3841,7 +3668,7 @@
         <v>93</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I37" s="33"/>
     </row>
@@ -3850,7 +3677,7 @@
         <v>94</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.3">
@@ -4004,7 +3831,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G45:G74">
+  <sortState ref="G45:G74">
     <sortCondition ref="G74"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4013,21 +3840,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa5"/>
-  <dimension ref="B1:Q21"/>
+  <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="3" customWidth="1"/>
-    <col min="4" max="17" width="9.77734375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="13.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="3" customWidth="1"/>
+    <col min="4" max="17" width="13.77734375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4046,109 +3874,105 @@
       <c r="P1" s="45"/>
       <c r="Q1" s="45"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="69"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" s="28" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
+    <row r="2" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+    </row>
+    <row r="3" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="69"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
+        <v>303</v>
+      </c>
       <c r="C5" s="43" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="56"/>
@@ -4162,14 +3986,14 @@
       <c r="P5" s="56"/>
       <c r="Q5" s="56"/>
     </row>
-    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="43" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -4177,77 +4001,77 @@
       <c r="K6" s="34"/>
       <c r="L6" s="56"/>
       <c r="M6" s="57"/>
-      <c r="N6" s="34"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="56"/>
       <c r="P6" s="56"/>
       <c r="Q6" s="56"/>
     </row>
-    <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="50"/>
+    <row r="7" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="49"/>
       <c r="C7" s="43" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="57"/>
       <c r="N7" s="34"/>
       <c r="O7" s="56"/>
       <c r="P7" s="56"/>
       <c r="Q7" s="56"/>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>114</v>
+    <row r="8" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="50"/>
+      <c r="C8" s="43" t="s">
+        <v>228</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="57"/>
-      <c r="N8" s="56"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="56"/>
       <c r="P8" s="56"/>
       <c r="Q8" s="56"/>
     </row>
-    <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
+    <row r="9" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
+        <v>304</v>
+      </c>
       <c r="C9" s="41" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="57"/>
-      <c r="N9" s="34"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="56"/>
       <c r="P9" s="56"/>
       <c r="Q9" s="56"/>
     </row>
-    <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52"/>
       <c r="C10" s="41" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -4255,7 +4079,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="57"/>
@@ -4264,10 +4088,10 @@
       <c r="P10" s="56"/>
       <c r="Q10" s="56"/>
     </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52"/>
       <c r="C11" s="41" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -4276,18 +4100,18 @@
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="57"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+    </row>
+    <row r="12" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52"/>
       <c r="C12" s="41" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -4297,17 +4121,17 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="57"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-    </row>
-    <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+    </row>
+    <row r="13" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52"/>
       <c r="C13" s="41" t="s">
-        <v>112</v>
+        <v>305</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -4318,16 +4142,16 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="58"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-    </row>
-    <row r="14" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="53"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+    </row>
+    <row r="14" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="52"/>
       <c r="C14" s="41" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -4339,17 +4163,15 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="58"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-    </row>
-    <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>107</v>
+      <c r="N14" s="34"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+    </row>
+    <row r="15" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="41" t="s">
+        <v>253</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -4362,14 +4184,16 @@
       <c r="L15" s="35"/>
       <c r="M15" s="58"/>
       <c r="N15" s="35"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
       <c r="Q15" s="56"/>
     </row>
-    <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
+    <row r="16" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="54" t="s">
+        <v>306</v>
+      </c>
       <c r="C16" s="37" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -4382,16 +4206,14 @@
       <c r="L16" s="35"/>
       <c r="M16" s="58"/>
       <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="O16" s="62"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="56"/>
     </row>
-    <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>106</v>
+    <row r="17" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="55"/>
+      <c r="C17" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -4405,53 +4227,69 @@
       <c r="M17" s="58"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="62"/>
-    </row>
-    <row r="18" spans="2:17" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="65" t="s">
-        <v>148</v>
-      </c>
-    </row>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="56"/>
+    </row>
+    <row r="18" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="62"/>
+    </row>
+    <row r="19" spans="2:17" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" s="2" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="J20" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="68" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" s="2" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4467,12 +4305,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B5:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4490,7 +4328,7 @@
     <col min="12" max="12" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -4501,555 +4339,556 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="3:10" s="28" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>322</v>
-      </c>
-      <c r="H6" s="91" t="s">
-        <v>318</v>
-      </c>
-      <c r="I6" s="91" t="s">
-        <v>316</v>
-      </c>
-      <c r="J6" s="92" t="s">
-        <v>321</v>
+      <c r="C6" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="97" t="s">
+        <v>298</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="J6" s="97" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="95" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="106" t="s">
-        <v>317</v>
-      </c>
-      <c r="J7" s="107">
+        <v>291</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="80" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="106" t="s">
         <v>299</v>
       </c>
+      <c r="D8" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>279</v>
+      </c>
       <c r="F8" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>319</v>
+        <v>280</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" s="80"/>
-      <c r="D9" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>301</v>
+      <c r="D9" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>281</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>320</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
+        <v>282</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="80"/>
-      <c r="D10" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="106" t="s">
-        <v>303</v>
+      <c r="D10" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>283</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="88" t="s">
-        <v>295</v>
-      </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+        <v>284</v>
+      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C11" s="80"/>
-      <c r="D11" s="88" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>305</v>
+      <c r="D11" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>285</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+        <v>286</v>
+      </c>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" s="80"/>
-      <c r="E12" s="106" t="s">
-        <v>307</v>
+      <c r="D12" s="80"/>
+      <c r="E12" s="95" t="s">
+        <v>287</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+        <v>288</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C13" s="80"/>
-      <c r="D13" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>309</v>
+      <c r="D13" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>289</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="82"/>
+        <v>290</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="88" t="s">
-        <v>296</v>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81" t="s">
+        <v>276</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="82"/>
+        <v>292</v>
+      </c>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="88" t="s">
-        <v>297</v>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81" t="s">
+        <v>277</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+        <v>293</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="88" t="s">
-        <v>298</v>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81" t="s">
+        <v>278</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
+        <v>294</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="88" t="s">
-        <v>171</v>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81" t="s">
+        <v>155</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
+        <v>156</v>
+      </c>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="88" t="s">
-        <v>173</v>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81" t="s">
+        <v>157</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
+        <v>158</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="88" t="s">
-        <v>162</v>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81" t="s">
+        <v>146</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
+        <v>147</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="88" t="s">
-        <v>166</v>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81" t="s">
+        <v>150</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>294</v>
-      </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="82"/>
+        <v>274</v>
+      </c>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="88" t="s">
-        <v>168</v>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81" t="s">
+        <v>152</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
+        <v>153</v>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="88" t="s">
-        <v>175</v>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81" t="s">
+        <v>159</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
+        <v>198</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="88" t="s">
-        <v>176</v>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81" t="s">
+        <v>160</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="82"/>
+        <v>161</v>
+      </c>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="80"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="88" t="s">
-        <v>178</v>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82"/>
+        <v>171</v>
+      </c>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="88" t="s">
-        <v>180</v>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81" t="s">
+        <v>172</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
+        <v>173</v>
+      </c>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="88" t="s">
-        <v>182</v>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81" t="s">
+        <v>180</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
+        <v>181</v>
+      </c>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="88" t="s">
-        <v>184</v>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="F28" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="82"/>
+        <v>183</v>
+      </c>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="88" t="s">
-        <v>186</v>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81" t="s">
+        <v>188</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="82"/>
+        <v>189</v>
+      </c>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="88" t="s">
-        <v>188</v>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81" t="s">
+        <v>190</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="82"/>
+        <v>191</v>
+      </c>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="82"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="88" t="s">
-        <v>192</v>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81" t="s">
+        <v>164</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82"/>
+        <v>165</v>
+      </c>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="88" t="s">
-        <v>194</v>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="F33" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="82"/>
+        <v>167</v>
+      </c>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="81"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="88" t="s">
-        <v>196</v>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81" t="s">
+        <v>168</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="82"/>
+        <v>169</v>
+      </c>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="81"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="82"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="81"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="88" t="s">
-        <v>200</v>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81" t="s">
+        <v>176</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="82"/>
+        <v>177</v>
+      </c>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="81"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="88" t="s">
-        <v>202</v>
+      <c r="D37" s="80"/>
+      <c r="E37" s="81" t="s">
+        <v>178</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+        <v>179</v>
+      </c>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="81"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="88" t="s">
-        <v>204</v>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81" t="s">
+        <v>184</v>
       </c>
       <c r="F38" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="82"/>
+        <v>185</v>
+      </c>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="81"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="88" t="s">
-        <v>206</v>
+      <c r="D39" s="80"/>
+      <c r="E39" s="81" t="s">
+        <v>186</v>
       </c>
       <c r="F39" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="82"/>
-    </row>
-    <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="81"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="F40" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="86"/>
+        <v>187</v>
+      </c>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M9:M14">
+  <sortState ref="M9:M14">
     <sortCondition ref="M9:M14"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5059,12 +4898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B3:K23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5088,10 +4927,10 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="D4" s="30"/>
       <c r="F4" s="32"/>
@@ -5112,7 +4951,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="60" t="str">
@@ -5120,7 +4959,7 @@
         <v>1.1-Statik-Kolon</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
         <v>32</v>
@@ -5140,7 +4979,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="60" t="str">
@@ -5148,7 +4987,7 @@
         <v>1.2-Statik-Kiriş</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
@@ -5168,7 +5007,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="60" t="str">
@@ -5176,7 +5015,7 @@
         <v>1.3-Statik-Döşeme</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K7" t="s">
         <v>34</v>
@@ -5196,7 +5035,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60" t="str">
@@ -5204,7 +5043,7 @@
         <v>1.4-Statik-Perde Duvar</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K8" t="s">
         <v>73</v>
@@ -5224,7 +5063,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="60" t="str">
@@ -5232,7 +5071,7 @@
         <v>2.1-Mimari-Duvar - Alçıpan</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s">
         <v>60</v>
@@ -5252,7 +5091,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="60" t="str">
@@ -5260,7 +5099,7 @@
         <v>2.2-Mimari-Duvar - Bims</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
         <v>61</v>
@@ -5280,7 +5119,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G11" s="75"/>
       <c r="H11" s="60" t="str">
@@ -5288,7 +5127,7 @@
         <v>2.3-Mimari-Otomatik Kapı</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
         <v>40</v>
@@ -5308,7 +5147,7 @@
         <v>41</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G12" s="75"/>
       <c r="H12" s="60" t="str">
@@ -5316,7 +5155,7 @@
         <v>2.4-Mimari-Pencere</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
         <v>41</v>
@@ -5336,7 +5175,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G13" s="75"/>
       <c r="H13" s="59" t="str">
@@ -5344,7 +5183,7 @@
         <v>2.5-Mimari-Yatak</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
         <v>42</v>
@@ -5364,7 +5203,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G14" s="75"/>
       <c r="H14" s="59" t="str">
@@ -5372,7 +5211,7 @@
         <v>2.6-Mimari-Cephe Kaplama</v>
       </c>
       <c r="I14" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -5392,7 +5231,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G15" s="75"/>
       <c r="H15" s="60" t="str">
@@ -5400,7 +5239,7 @@
         <v>2.7-Mimari-Zemin-PVC + Self Lev</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -5420,7 +5259,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G16" s="75"/>
       <c r="H16" s="60" t="str">
@@ -5428,7 +5267,7 @@
         <v>2.8-Mimari-Zemin-Seramik</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -5448,7 +5287,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G17" s="75"/>
       <c r="H17" s="60" t="str">
@@ -5456,7 +5295,7 @@
         <v>2.9-Mimari-Zemin-Parke</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
         <v>58</v>
@@ -5476,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G18" s="75"/>
       <c r="H18" s="59" t="str">
@@ -5484,7 +5323,7 @@
         <v>2.10-Mimari-Asma Tavan</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
@@ -5504,7 +5343,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G19" s="76"/>
       <c r="H19" s="59" t="str">
@@ -5512,7 +5351,7 @@
         <v>3.1-Mekanik-Havalandırma - Kanal</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
         <v>65</v>
@@ -5532,7 +5371,7 @@
         <v>66</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G20" s="76"/>
       <c r="H20" s="59" t="str">
@@ -5540,7 +5379,7 @@
         <v>3.2-Mekanik-Havalandırma - Menfez</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s">
         <v>66</v>
@@ -5554,13 +5393,13 @@
         <v>31</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G21" s="76"/>
       <c r="H21" s="59" t="str">
@@ -5568,10 +5407,10 @@
         <v>3.3-Mekanik-Medikal Gaz Borulama</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -5582,13 +5421,13 @@
         <v>31</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G22" s="76"/>
       <c r="H22" s="59" t="str">
@@ -5596,10 +5435,10 @@
         <v>3.4-Mekanik-Hastabaşı Ünitesi</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5613,10 +5452,10 @@
         <v>76</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G23" s="77"/>
       <c r="H23" s="59" t="str">
@@ -5624,10 +5463,10 @@
         <v>4.1-Elektrik-Kablo Taşıyıcı Kanal</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5637,12 +5476,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B3:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5653,7 +5492,7 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.88671875" style="94" customWidth="1"/>
+    <col min="8" max="8" width="69.88671875" style="83" customWidth="1"/>
     <col min="9" max="9" width="2.21875" customWidth="1"/>
     <col min="11" max="11" width="18.44140625" customWidth="1"/>
   </cols>
@@ -5663,461 +5502,461 @@
       <c r="E3" s="72"/>
       <c r="F3" s="72"/>
       <c r="G3" s="72"/>
-      <c r="H3" s="95"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="2:11" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="96" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="96" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>239</v>
+      <c r="B4" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="43" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="98" t="s">
-        <v>243</v>
+        <v>134</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>224</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="K5" s="72"/>
     </row>
     <row r="6" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" s="104" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" s="93" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="98" t="s">
-        <v>243</v>
+        <v>134</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>224</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="98" t="s">
-        <v>243</v>
+        <v>134</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="99" t="s">
-        <v>251</v>
+        <v>134</v>
+      </c>
+      <c r="H9" s="88" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="99" t="s">
-        <v>251</v>
+        <v>134</v>
+      </c>
+      <c r="H10" s="88" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="99" t="s">
-        <v>255</v>
+        <v>134</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="99" t="s">
-        <v>258</v>
+        <v>134</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="99" t="s">
-        <v>261</v>
+        <v>133</v>
+      </c>
+      <c r="H13" s="88" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>264</v>
+        <v>133</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="99" t="s">
-        <v>267</v>
+        <v>134</v>
+      </c>
+      <c r="H15" s="88" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="99" t="s">
-        <v>267</v>
+        <v>134</v>
+      </c>
+      <c r="H16" s="88" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="99" t="s">
-        <v>267</v>
+        <v>134</v>
+      </c>
+      <c r="H17" s="88" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>274</v>
+        <v>133</v>
+      </c>
+      <c r="H18" s="88" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="100" t="s">
-        <v>278</v>
+        <v>134</v>
+      </c>
+      <c r="H19" s="89" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="100" t="s">
-        <v>281</v>
+        <v>133</v>
+      </c>
+      <c r="H20" s="89" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="100" t="s">
-        <v>284</v>
+        <v>133</v>
+      </c>
+      <c r="H21" s="89" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="39" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="101" t="s">
-        <v>288</v>
+        <v>134</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F23" s="102" t="s">
-        <v>289</v>
-      </c>
-      <c r="G23" s="103" t="s">
-        <v>290</v>
+      <c r="F23" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6127,7 +5966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:B20"/>
   <sheetViews>
@@ -6139,12 +5978,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
